--- a/Social Scoreboard file4 TEMPLATE.xlsx
+++ b/Social Scoreboard file4 TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eceuropaeu-my.sharepoint.com/personal/aleksander_rutkowski_ec_europa_eu/Documents/Social_Scoreboard_in_R/FRESH NEW APPROACH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{2876ABB7-7A8E-484E-BBFB-754D8A50CE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F76D9D-9665-4971-8C12-6BBC6E19A535}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{2876ABB7-7A8E-484E-BBFB-754D8A50CE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3FC2EB-DE79-41CD-9541-82FA147BDE5C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="21549" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Social Scoreboard for XXXXXX</t>
   </si>
   <si>
-    <t>Update of DD MMMMM YYYY. Members States are categorised based on the Social Scoreboard according to a methodology agreed with the EMCO and SPC Committees. Please consult the Annex of the Joint Employment Report 2024 for details on the methodology (https://op.europa.eu/s/ziyU).</t>
-  </si>
-  <si>
     <t>Early leavers from education and training
 (% of  the population aged 18-24, YYYY)</t>
   </si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>11140_ex114</t>
+  </si>
+  <si>
+    <t>Update of DD MMMMM YYYY. Members States are categorised based on the Social Scoreboard according to a methodology agreed with the EMCO and SPC Committees. Please consult the Annex of the Joint Employment Report 2025 for details on the methodology (https://employment-social-affairs.ec.europa.eu/joint-employment-report-2025-0).</t>
   </si>
 </sst>
 </file>
@@ -492,28 +492,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,10 +557,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,281 +873,281 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="9"/>
       <c r="K2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="9"/>
       <c r="K3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="9"/>
       <c r="K4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="9"/>
       <c r="K5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="9"/>
       <c r="K6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="9"/>
       <c r="K7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="9"/>
       <c r="K8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="9"/>
       <c r="K9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="9"/>
       <c r="K10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="10"/>
       <c r="K11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="9"/>
       <c r="K12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="9"/>
       <c r="K13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="9"/>
       <c r="K14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="9"/>
       <c r="K15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="9"/>
       <c r="K16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="9"/>
       <c r="K17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="29.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="9"/>
       <c r="K18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1181,7 +1177,7 @@
     </row>
     <row r="20" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1217,14 +1213,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="A12:B18"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A2:B7"/>
     <mergeCell ref="A1:I1"/>
@@ -1241,6 +1229,14 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="A12:B18"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="120" fitToHeight="0" orientation="portrait" r:id="rId1"/>
